--- a/data/Cpapaya_PRJNA271489_sra_wgs.xlsx
+++ b/data/Cpapaya_PRJNA271489_sra_wgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/PapayaFlavour9/Shared Documents/Research Projects/Leela_PhD_Papaya_Genomics/Thesis/GWAS/SNP_Calling_Papaya/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{0DA9238B-3CB0-4BE1-8782-C770D003DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A49B490B-572F-4075-A462-4B6F7B4A850A}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{0DA9238B-3CB0-4BE1-8782-C770D003DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384C3C08-3002-49AE-8F8E-563ED8D5CADD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F2CD55B-7DD6-474D-A1CC-6786B6658854}"/>
   </bookViews>
@@ -1591,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72F1BF3-D70A-4091-AB85-F289CF586C70}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1604,6 +1604,7 @@
     <col min="7" max="8" width="13.90625" customWidth="1"/>
     <col min="9" max="9" width="15.81640625" customWidth="1"/>
     <col min="10" max="10" width="14.08984375" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" customWidth="1"/>
     <col min="12" max="12" width="13.36328125" customWidth="1"/>
     <col min="15" max="15" width="9.453125" customWidth="1"/>
   </cols>
@@ -4266,6 +4267,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045EEA7378D4F9D4D971E372262DEEEF3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f2706c894104d0f6c0f0e43ae247914a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59bdd577-87e5-408b-82ee-b778416b7e33" xmlns:ns3="312aad96-96f5-469b-aa89-ed1395b471aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f8d303bca06c7c8e692b5b5fda65fe5" ns2:_="" ns3:_="">
     <xsd:import namespace="59bdd577-87e5-408b-82ee-b778416b7e33"/>
@@ -4520,15 +4530,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4541,6 +4542,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE5A434-5E59-422E-97CB-FE057BB12911}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48EB4D5D-B10A-4525-9210-43128237811E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4555,14 +4564,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE5A434-5E59-422E-97CB-FE057BB12911}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
